--- a/outputs/summary1.xlsx
+++ b/outputs/summary1.xlsx
@@ -387,19 +387,19 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.1522633744855967</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2002743484224966</v>
+        <v>0.1838134430727023</v>
       </c>
       <c r="C2">
-        <v>0.2167352537722908</v>
+        <v>0.1906721536351166</v>
       </c>
       <c r="D2">
-        <v>0.1934156378600823</v>
+        <v>0.1920438957475995</v>
       </c>
       <c r="E2">
-        <v>0.186556927297668</v>
+        <v>0.1810699588477366</v>
       </c>
     </row>
   </sheetData>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,10 +463,10 @@
         <v>0.07894736842105263</v>
       </c>
       <c r="E2">
-        <v>0.131578947368421</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="F2">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="E3">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F3">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D7">
         <v>0.1866666666666667</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0.12</v>
@@ -595,7 +595,7 @@
         <v>0.2</v>
       </c>
       <c r="E8">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F8">
         <v>0.4</v>
@@ -608,19 +608,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09090909090909091</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="D9">
-        <v>0.3636363636363636</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E9">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3636363636363636</v>
+        <v>0.3636363636363637</v>
       </c>
     </row>
     <row r="10">
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="D10">
         <v>0.25</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09090909090909091</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="D11">
-        <v>0.2272727272727273</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E11">
         <v>0.4090909090909091</v>
@@ -670,45 +670,45 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1666666666666667</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="D12">
-        <v>0.2666666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E12">
-        <v>0.3333333333333333</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="F12">
-        <v>0.1666666666666667</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2424242424242424</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="D13">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>0.1818181818181818</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="F13">
-        <v>0.1515151515151515</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="E14">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
         <v>0.125</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3636363636363636</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="B16">
@@ -768,10 +768,10 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="D16">
-        <v>0.2727272727272727</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E16">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="F16">
         <v>0.09090909090909091</v>
@@ -780,20 +780,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09090909090909091</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D17">
-        <v>0.4090909090909091</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E17">
-        <v>0.4090909090909091</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="F17">
         <v>0.09090909090909091</v>
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0.1363636363636364</v>
       </c>
       <c r="D18">
-        <v>0.4090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E18">
-        <v>0.3181818181818182</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F18">
         <v>0.09090909090909091</v>
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0.1818181818181818</v>
       </c>
-      <c r="C19">
-        <v>0.1515151515151515</v>
-      </c>
       <c r="D19">
-        <v>0.303030303030303</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E19">
         <v>0.1818181818181818</v>
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.09615384615384616</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1153846153846154</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D20">
-        <v>0.4038461538461539</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E20">
-        <v>0.3076923076923077</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="F20">
-        <v>0.07692307692307693</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="21">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="D21">
         <v>0.2173913043478261</v>
-      </c>
-      <c r="C21">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="D21">
-        <v>0.2608695652173913</v>
       </c>
       <c r="E21">
         <v>0.08695652173913043</v>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.1481481481481481</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0.2592592592592592</v>
@@ -906,7 +906,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="F22">
-        <v>0.03703703703703703</v>
+        <v>0.03703703703703704</v>
       </c>
     </row>
     <row r="23">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.303030303030303</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D23">
         <v>0.2727272727272727</v>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D24">
         <v>0.1666666666666667</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.5454545454545454</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="D25">
         <v>0.09090909090909091</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.3888888888888889</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.3055555555555556</v>
+        <v>0.1944444444444445</v>
       </c>
       <c r="D26">
-        <v>0.1944444444444444</v>
+        <v>0.1944444444444445</v>
       </c>
       <c r="E26">
         <v>0.05555555555555555</v>
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0.2666666666666667</v>
       </c>
       <c r="D27">
-        <v>0.06666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E27">
         <v>0.03333333333333333</v>
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.4324324324324325</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.4054054054054054</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="D28">
-        <v>0.05405405405405406</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E28">
         <v>0.02702702702702703</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0.3076923076923077</v>
-      </c>
-      <c r="C31">
-        <v>0.5384615384615384</v>
       </c>
       <c r="D31">
         <v>0.1538461538461539</v>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.5384615384615384</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0.07692307692307693</v>
@@ -1148,50 +1148,6 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Sikkim</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>0.75</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Kerala</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
         <v>0</v>
       </c>
     </row>
